--- a/REGULAR/DOGELIO, MARIETTA.xlsx
+++ b/REGULAR/DOGELIO, MARIETTA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1BC9F-5719-4D58-A1A9-C6BF9E9332B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="204">
   <si>
     <t>PERIOD</t>
   </si>
@@ -437,9 +430,6 @@
     <t>10/3,5,29,12,11,16 HD</t>
   </si>
   <si>
-    <t>12/17,21</t>
-  </si>
-  <si>
     <t>SL(3-0-0)</t>
   </si>
   <si>
@@ -620,9 +610,6 @@
     <t>11/20,22</t>
   </si>
   <si>
-    <t>10/16,20</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -648,12 +635,24 @@
   </si>
   <si>
     <t>5/21,23,24</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1020,6 +1019,15 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,15 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1513,7 +1512,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1555,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1619,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1679,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1745,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1808,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1906,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1965,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2030,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2073,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2148,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2334,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2400,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2458,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2524,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2580,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2655,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2698,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2764,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2820,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,7 +2918,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2981,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +3030,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3048,25 +3047,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K256" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K257" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3078,13 +3077,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3093,14 +3092,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3404,7 +3403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3422,16 +3421,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K256"/>
+  <dimension ref="A2:K257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A195" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A247" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D208" sqref="D208"/>
+      <selection pane="bottomLeft" activeCell="N254" sqref="N254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3453,58 +3452,58 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3530,18 +3529,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3588,7 +3587,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-12.166999999999987</v>
+        <v>46.833000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3598,13 +3597,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>200.37</v>
+        <v>260.37</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -3907,7 +3906,7 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="60">
+      <c r="K23" s="48">
         <v>45209</v>
       </c>
     </row>
@@ -3976,7 +3975,7 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="20"/>
@@ -4284,7 +4283,7 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="20"/>
@@ -4493,7 +4492,7 @@
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="60">
+      <c r="K50" s="48">
         <v>45133</v>
       </c>
     </row>
@@ -4515,7 +4514,7 @@
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="60">
+      <c r="K51" s="48">
         <v>45142</v>
       </c>
     </row>
@@ -4561,7 +4560,7 @@
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="60">
+      <c r="K53" s="48">
         <v>45161</v>
       </c>
     </row>
@@ -4625,7 +4624,7 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="60">
+      <c r="K56" s="48">
         <v>45191</v>
       </c>
     </row>
@@ -4739,7 +4738,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="60">
+      <c r="K61" s="48">
         <v>45232</v>
       </c>
     </row>
@@ -4790,7 +4789,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="20"/>
@@ -5015,7 +5014,7 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="60">
+      <c r="K73" s="48">
         <v>45062</v>
       </c>
     </row>
@@ -5113,7 +5112,7 @@
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="60">
+      <c r="K77" s="48">
         <v>45148</v>
       </c>
     </row>
@@ -5161,7 +5160,7 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="60">
+      <c r="K79" s="48">
         <v>45216</v>
       </c>
     </row>
@@ -5257,12 +5256,12 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="60">
+      <c r="K83" s="48">
         <v>45286</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="59" t="s">
+      <c r="A84" s="47" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="20"/>
@@ -5423,7 +5422,7 @@
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="60">
+      <c r="K90" s="48">
         <v>45048</v>
       </c>
     </row>
@@ -5507,7 +5506,7 @@
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="60">
+      <c r="K94" s="48">
         <v>45077</v>
       </c>
     </row>
@@ -5647,7 +5646,7 @@
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="60">
+      <c r="K100" s="48">
         <v>45197</v>
       </c>
     </row>
@@ -5725,8 +5724,8 @@
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20" t="s">
-        <v>131</v>
+      <c r="K103" s="49">
+        <v>44547</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -5774,7 +5773,7 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="59" t="s">
+      <c r="A106" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B106" s="20"/>
@@ -5800,7 +5799,7 @@
         <v>41275</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -5818,13 +5817,13 @@
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="39">
@@ -5886,7 +5885,7 @@
         <v>41365</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C111" s="13">
         <v>1.25</v>
@@ -5932,7 +5931,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="39">
@@ -5948,7 +5947,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -5956,7 +5955,7 @@
         <v>41426</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -5982,7 +5981,7 @@
         <v>41456</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C115" s="13">
         <v>1.25</v>
@@ -6006,7 +6005,7 @@
         <v>41487</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
@@ -6030,7 +6029,7 @@
         <v>41518</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
@@ -6050,7 +6049,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
       <c r="K117" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -6058,7 +6057,7 @@
         <v>41548</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C118" s="13">
         <v>1.25</v>
@@ -6076,13 +6075,13 @@
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
       <c r="K118" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="39">
@@ -6100,7 +6099,7 @@
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
       <c r="K119" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -6108,7 +6107,7 @@
         <v>41579</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -6128,7 +6127,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
       <c r="K120" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -6136,7 +6135,7 @@
         <v>41609</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -6156,62 +6155,64 @@
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
       <c r="K121" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
-      <c r="B122" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="A122" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
-      <c r="E122" s="9"/>
+      <c r="E122" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F122" s="20"/>
       <c r="G122" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H122" s="39"/>
-      <c r="I122" s="9"/>
+      <c r="I122" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="A123" s="40">
+        <v>41640</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D123" s="39">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E123" s="9"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G123" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H123" s="39"/>
-      <c r="I123" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I123" s="9"/>
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>41640</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>150</v>
-      </c>
+        <v>41671</v>
+      </c>
+      <c r="B124" s="20"/>
       <c r="C124" s="13">
         <v>1.25</v>
       </c>
-      <c r="D124" s="39">
-        <v>0.61899999999999999</v>
-      </c>
+      <c r="D124" s="39"/>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
       <c r="G124" s="13">
@@ -6225,7 +6226,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6245,13 +6246,17 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>41699</v>
-      </c>
-      <c r="B126" s="20"/>
+        <v>41730</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C126" s="13">
         <v>1.25</v>
       </c>
-      <c r="D126" s="39"/>
+      <c r="D126" s="39">
+        <v>0.58099999999999996</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
       <c r="G126" s="13">
@@ -6261,20 +6266,22 @@
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="20" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C127" s="13">
         <v>1.25</v>
       </c>
       <c r="D127" s="39">
-        <v>0.58099999999999996</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
@@ -6291,16 +6298,16 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
       </c>
       <c r="D128" s="39">
-        <v>0.48699999999999999</v>
+        <v>6.3959999999999999</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
@@ -6311,23 +6318,17 @@
       <c r="H128" s="39"/>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>41791</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>154</v>
-      </c>
+        <v>41821</v>
+      </c>
+      <c r="B129" s="20"/>
       <c r="C129" s="13">
         <v>1.25</v>
       </c>
-      <c r="D129" s="39">
-        <v>6.3959999999999999</v>
-      </c>
+      <c r="D129" s="39"/>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
       <c r="G129" s="13">
@@ -6341,13 +6342,17 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>41821</v>
-      </c>
-      <c r="B130" s="20"/>
+        <v>41852</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="C130" s="13">
         <v>1.25</v>
       </c>
-      <c r="D130" s="39"/>
+      <c r="D130" s="39">
+        <v>0.28699999999999998</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="20"/>
       <c r="G130" s="13">
@@ -6361,16 +6366,16 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C131" s="13">
         <v>1.25</v>
       </c>
       <c r="D131" s="39">
-        <v>0.28699999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
@@ -6385,16 +6390,16 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="C132" s="13">
         <v>1.25</v>
       </c>
       <c r="D132" s="39">
-        <v>2.74</v>
+        <v>3.3290000000000002</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
@@ -6409,7 +6414,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B133" s="20" t="s">
         <v>156</v>
@@ -6418,7 +6423,7 @@
         <v>1.25</v>
       </c>
       <c r="D133" s="39">
-        <v>3.3290000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
@@ -6433,7 +6438,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B134" s="20" t="s">
         <v>157</v>
@@ -6442,7 +6447,7 @@
         <v>1.25</v>
       </c>
       <c r="D134" s="39">
-        <v>0.14000000000000001</v>
+        <v>2.3420000000000001</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
@@ -6456,43 +6461,45 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="40">
-        <v>41974</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C135" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D135" s="39">
-        <v>2.3420000000000001</v>
-      </c>
-      <c r="E135" s="9"/>
+      <c r="A135" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F135" s="20"/>
-      <c r="G135" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H135" s="39"/>
-      <c r="I135" s="9"/>
+      <c r="I135" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
+      <c r="A136" s="40">
+        <v>42005</v>
+      </c>
       <c r="B136" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C136" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="C136" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D136" s="39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G136" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H136" s="39"/>
       <c r="I136" s="9"/>
@@ -6500,40 +6507,38 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="A137" s="40">
+        <v>42036</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D137" s="39">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="E137" s="9"/>
       <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G137" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H137" s="39"/>
-      <c r="I137" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I137" s="9"/>
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>42005</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>159</v>
-      </c>
+        <v>42064</v>
+      </c>
+      <c r="B138" s="20"/>
       <c r="C138" s="13">
         <v>1.25</v>
       </c>
-      <c r="D138" s="39">
-        <v>7</v>
-      </c>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
       <c r="F138" s="20"/>
       <c r="G138" s="13">
@@ -6547,7 +6552,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>42036</v>
+        <v>42095</v>
       </c>
       <c r="B139" s="20" t="s">
         <v>160</v>
@@ -6556,7 +6561,7 @@
         <v>1.25</v>
       </c>
       <c r="D139" s="39">
-        <v>3.3940000000000001</v>
+        <v>4.758</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
@@ -6571,9 +6576,11 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>42064</v>
-      </c>
-      <c r="B140" s="20"/>
+        <v>42125</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C140" s="13">
         <v>1.25</v>
       </c>
@@ -6587,26 +6594,24 @@
       <c r="H140" s="39"/>
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
-      <c r="K140" s="20"/>
+      <c r="K140" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="40">
-        <v>42095</v>
-      </c>
+      <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C141" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C141" s="13"/>
       <c r="D141" s="39">
-        <v>4.758</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
-      <c r="G141" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H141" s="39"/>
       <c r="I141" s="9"/>
@@ -6615,11 +6620,9 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>42125</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>42156</v>
+      </c>
+      <c r="B142" s="20"/>
       <c r="C142" s="13">
         <v>1.25</v>
       </c>
@@ -6633,24 +6636,22 @@
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="40"/>
-      <c r="B143" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="39">
-        <v>1.6419999999999999</v>
-      </c>
+      <c r="A143" s="40">
+        <v>42186</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D143" s="39"/>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
-      <c r="G143" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G143" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H143" s="39"/>
       <c r="I143" s="9"/>
@@ -6659,13 +6660,17 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>42156</v>
-      </c>
-      <c r="B144" s="20"/>
+        <v>42217</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="C144" s="13">
         <v>1.25</v>
       </c>
-      <c r="D144" s="39"/>
+      <c r="D144" s="39">
+        <v>0.2</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
       <c r="G144" s="13">
@@ -6679,13 +6684,17 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <v>42186</v>
-      </c>
-      <c r="B145" s="20"/>
+        <v>42248</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="C145" s="13">
         <v>1.25</v>
       </c>
-      <c r="D145" s="39"/>
+      <c r="D145" s="39">
+        <v>3.262</v>
+      </c>
       <c r="E145" s="9"/>
       <c r="F145" s="20"/>
       <c r="G145" s="13">
@@ -6699,16 +6708,16 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>42217</v>
+        <v>42278</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
       </c>
       <c r="D146" s="39">
-        <v>0.2</v>
+        <v>3.19</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
@@ -6723,16 +6732,16 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C147" s="13">
         <v>1.25</v>
       </c>
       <c r="D147" s="39">
-        <v>3.262</v>
+        <v>7.8520000000000003</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="20"/>
@@ -6747,16 +6756,16 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C148" s="13">
         <v>1.25</v>
       </c>
       <c r="D148" s="39">
-        <v>3.19</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="20"/>
@@ -6770,41 +6779,39 @@
       <c r="K148" s="20"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="40">
-        <v>42309</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C149" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D149" s="39">
-        <v>7.8520000000000003</v>
-      </c>
-      <c r="E149" s="9"/>
+      <c r="A149" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F149" s="20"/>
-      <c r="G149" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H149" s="39"/>
-      <c r="I149" s="9"/>
+      <c r="I149" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C150" s="13">
         <v>1.25</v>
       </c>
       <c r="D150" s="39">
-        <v>5</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="20"/>
@@ -6818,19 +6825,23 @@
       <c r="K150" s="20"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="40"/>
+      <c r="A151" s="40">
+        <v>42401</v>
+      </c>
       <c r="B151" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C151" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="C151" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D151" s="39">
-        <v>2.1869999999999998</v>
+        <v>2.84</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="20"/>
-      <c r="G151" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G151" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H151" s="39"/>
       <c r="I151" s="9"/>
@@ -6838,39 +6849,37 @@
       <c r="K151" s="20"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="59" t="s">
-        <v>86</v>
+      <c r="A152" s="40">
+        <v>42430</v>
       </c>
       <c r="B152" s="20"/>
-      <c r="C152" s="13"/>
+      <c r="C152" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D152" s="39"/>
-      <c r="E152" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E152" s="9"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G152" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H152" s="39"/>
-      <c r="I152" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I152" s="9"/>
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
       </c>
       <c r="D153" s="39">
-        <v>0.52300000000000002</v>
+        <v>1.587</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
@@ -6881,21 +6890,21 @@
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
-      <c r="K153" s="20"/>
+      <c r="K153" s="20" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
       </c>
-      <c r="D154" s="39">
-        <v>2.84</v>
-      </c>
+      <c r="D154" s="39"/>
       <c r="E154" s="9"/>
       <c r="F154" s="20"/>
       <c r="G154" s="13">
@@ -6905,22 +6914,24 @@
       <c r="H154" s="39"/>
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="20"/>
+      <c r="K154" s="20" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="40">
-        <v>42430</v>
-      </c>
-      <c r="B155" s="20"/>
-      <c r="C155" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D155" s="39"/>
+      <c r="A155" s="40"/>
+      <c r="B155" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="39">
+        <v>4.9370000000000003</v>
+      </c>
       <c r="E155" s="9"/>
       <c r="F155" s="20"/>
-      <c r="G155" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H155" s="39"/>
       <c r="I155" s="9"/>
@@ -6929,16 +6940,16 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C156" s="13">
         <v>1.25</v>
       </c>
       <c r="D156" s="39">
-        <v>1.587</v>
+        <v>1.952</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
@@ -6949,17 +6960,13 @@
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="K156" s="20"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <v>42491</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>42552</v>
+      </c>
+      <c r="B157" s="20"/>
       <c r="C157" s="13">
         <v>1.25</v>
       </c>
@@ -6973,24 +6980,26 @@
       <c r="H157" s="39"/>
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
-      <c r="K157" s="20" t="s">
-        <v>178</v>
-      </c>
+      <c r="K157" s="20"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" s="40"/>
+      <c r="A158" s="40">
+        <v>42583</v>
+      </c>
       <c r="B158" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C158" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="C158" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D158" s="39">
-        <v>4.9370000000000003</v>
+        <v>1.673</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="20"/>
-      <c r="G158" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G158" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H158" s="39"/>
       <c r="I158" s="9"/>
@@ -6999,17 +7008,15 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C159" s="13">
         <v>1.25</v>
       </c>
-      <c r="D159" s="39">
-        <v>1.952</v>
-      </c>
+      <c r="D159" s="39"/>
       <c r="E159" s="9"/>
       <c r="F159" s="20"/>
       <c r="G159" s="13">
@@ -7019,17 +7026,23 @@
       <c r="H159" s="39"/>
       <c r="I159" s="9"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="20"/>
+      <c r="K159" s="20" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <v>42552</v>
-      </c>
-      <c r="B160" s="20"/>
+        <v>42644</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>173</v>
+      </c>
       <c r="C160" s="13">
         <v>1.25</v>
       </c>
-      <c r="D160" s="39"/>
+      <c r="D160" s="39">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
       <c r="G160" s="13">
@@ -7043,16 +7056,16 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
       <c r="D161" s="39">
-        <v>1.673</v>
+        <v>1.708</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="20"/>
@@ -7067,15 +7080,17 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
       </c>
-      <c r="D162" s="39"/>
+      <c r="D162" s="39">
+        <v>0.76700000000000002</v>
+      </c>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
       <c r="G162" s="13">
@@ -7085,47 +7100,41 @@
       <c r="H162" s="39"/>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="20" t="s">
-        <v>179</v>
-      </c>
+      <c r="K162" s="20"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="40">
-        <v>42644</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C163" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D163" s="39">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E163" s="9"/>
+      <c r="A163" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B163" s="20"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F163" s="20"/>
-      <c r="G163" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H163" s="39"/>
-      <c r="I163" s="9"/>
+      <c r="I163" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C164" s="13">
         <v>1.25</v>
       </c>
-      <c r="D164" s="39">
-        <v>1.708</v>
-      </c>
+      <c r="D164" s="39"/>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
       <c r="G164" s="13">
@@ -7135,85 +7144,89 @@
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="20"/>
+      <c r="K164" s="20" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="40">
-        <v>42705</v>
-      </c>
+      <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C165" s="13">
-        <v>1.25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C165" s="13"/>
       <c r="D165" s="39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="20"/>
-      <c r="G165" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G165" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H165" s="39"/>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="20"/>
+      <c r="K165" s="20" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="C166" s="13"/>
-      <c r="D166" s="39">
-        <v>0.76700000000000002</v>
-      </c>
+      <c r="D166" s="39"/>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
       <c r="G166" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H166" s="39"/>
+      <c r="H166" s="39">
+        <v>1</v>
+      </c>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="20"/>
+      <c r="K166" s="48">
+        <v>44971</v>
+      </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B167" s="20"/>
+      <c r="A167" s="40"/>
+      <c r="B167" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="C167" s="13"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="D167" s="39">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="E167" s="9"/>
       <c r="F167" s="20"/>
       <c r="G167" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H167" s="39"/>
-      <c r="I167" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="20"/>
+      <c r="K167" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C168" s="13">
         <v>1.25</v>
       </c>
-      <c r="D168" s="39"/>
+      <c r="D168" s="39">
+        <v>1.84</v>
+      </c>
       <c r="E168" s="9"/>
       <c r="F168" s="20"/>
       <c r="G168" s="13">
@@ -7223,89 +7236,81 @@
       <c r="H168" s="39"/>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="K168" s="20"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="40"/>
+      <c r="A169" s="40">
+        <v>42795</v>
+      </c>
       <c r="B169" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C169" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="C169" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D169" s="39">
-        <v>2</v>
+        <v>1.331</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="20"/>
-      <c r="G169" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G169" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H169" s="39"/>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="20" t="s">
-        <v>184</v>
-      </c>
+      <c r="K169" s="20"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="40"/>
-      <c r="B170" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C170" s="13"/>
+      <c r="A170" s="40">
+        <v>42826</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D170" s="39"/>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H170" s="39">
-        <v>1</v>
-      </c>
+      <c r="G170" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H170" s="39"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="60">
-        <v>44971</v>
-      </c>
+      <c r="K170" s="20"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="40"/>
-      <c r="B171" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C171" s="13"/>
-      <c r="D171" s="39">
-        <v>1.2649999999999999</v>
-      </c>
+      <c r="A171" s="40">
+        <v>42856</v>
+      </c>
+      <c r="B171" s="20"/>
+      <c r="C171" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D171" s="39"/>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
-      <c r="G171" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G171" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H171" s="39"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="20" t="s">
-        <v>185</v>
-      </c>
+      <c r="K171" s="20"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <v>42767</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>182</v>
-      </c>
+        <v>42887</v>
+      </c>
+      <c r="B172" s="20"/>
       <c r="C172" s="13">
         <v>1.25</v>
       </c>
-      <c r="D172" s="39">
-        <v>1.84</v>
-      </c>
+      <c r="D172" s="39"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
       <c r="G172" s="13">
@@ -7319,17 +7324,13 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <v>42795</v>
-      </c>
-      <c r="B173" s="20" t="s">
-        <v>186</v>
-      </c>
+        <v>42917</v>
+      </c>
+      <c r="B173" s="20"/>
       <c r="C173" s="13">
         <v>1.25</v>
       </c>
-      <c r="D173" s="39">
-        <v>1.331</v>
-      </c>
+      <c r="D173" s="39"/>
       <c r="E173" s="9"/>
       <c r="F173" s="20"/>
       <c r="G173" s="13">
@@ -7343,13 +7344,17 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <v>42826</v>
-      </c>
-      <c r="B174" s="20"/>
+        <v>42948</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="C174" s="13">
         <v>1.25</v>
       </c>
-      <c r="D174" s="39"/>
+      <c r="D174" s="39">
+        <v>0.05</v>
+      </c>
       <c r="E174" s="9"/>
       <c r="F174" s="20"/>
       <c r="G174" s="13">
@@ -7363,13 +7368,17 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <v>42856</v>
-      </c>
-      <c r="B175" s="20"/>
+        <v>42979</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="C175" s="13">
         <v>1.25</v>
       </c>
-      <c r="D175" s="39"/>
+      <c r="D175" s="39">
+        <v>5</v>
+      </c>
       <c r="E175" s="9"/>
       <c r="F175" s="20"/>
       <c r="G175" s="13">
@@ -7379,22 +7388,24 @@
       <c r="H175" s="39"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="20"/>
+      <c r="K175" s="49">
+        <v>44120</v>
+      </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="40">
-        <v>42887</v>
-      </c>
-      <c r="B176" s="20"/>
-      <c r="C176" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D176" s="39"/>
+      <c r="A176" s="40"/>
+      <c r="B176" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="39">
+        <v>0.94199999999999995</v>
+      </c>
       <c r="E176" s="9"/>
       <c r="F176" s="20"/>
-      <c r="G176" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G176" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H176" s="39"/>
       <c r="I176" s="9"/>
@@ -7403,13 +7414,17 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <v>42917</v>
-      </c>
-      <c r="B177" s="20"/>
+        <v>43009</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="C177" s="13">
         <v>1.25</v>
       </c>
-      <c r="D177" s="39"/>
+      <c r="D177" s="39">
+        <v>5.085</v>
+      </c>
       <c r="E177" s="9"/>
       <c r="F177" s="20"/>
       <c r="G177" s="13">
@@ -7423,87 +7438,85 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
       </c>
-      <c r="D178" s="39">
-        <v>0.05</v>
-      </c>
+      <c r="D178" s="39"/>
       <c r="E178" s="9"/>
       <c r="F178" s="20"/>
       <c r="G178" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H178" s="39"/>
+      <c r="H178" s="39">
+        <v>3</v>
+      </c>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
-      <c r="K178" s="20"/>
+      <c r="K178" s="20" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>42979</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>188</v>
-      </c>
+        <v>43070</v>
+      </c>
+      <c r="B179" s="20"/>
       <c r="C179" s="13">
         <v>1.25</v>
       </c>
-      <c r="D179" s="39">
-        <v>5</v>
-      </c>
-      <c r="E179" s="9"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F179" s="20"/>
       <c r="G179" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H179" s="39"/>
-      <c r="I179" s="9"/>
+      <c r="I179" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J179" s="11"/>
-      <c r="K179" s="20" t="s">
-        <v>192</v>
-      </c>
+      <c r="K179" s="20"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="40"/>
-      <c r="B180" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="A180" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B180" s="20"/>
       <c r="C180" s="13"/>
-      <c r="D180" s="39">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="E180" s="9"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F180" s="20"/>
       <c r="G180" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H180" s="39"/>
-      <c r="I180" s="9"/>
+      <c r="I180" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <v>43009</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>190</v>
-      </c>
+        <v>43101</v>
+      </c>
+      <c r="B181" s="20"/>
       <c r="C181" s="13">
         <v>1.25</v>
       </c>
-      <c r="D181" s="39">
-        <v>5.085</v>
-      </c>
+      <c r="D181" s="39"/>
       <c r="E181" s="9"/>
       <c r="F181" s="20"/>
       <c r="G181" s="13">
@@ -7517,10 +7530,10 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
@@ -7533,65 +7546,61 @@
         <v>1.25</v>
       </c>
       <c r="H182" s="39">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="20" t="s">
-        <v>191</v>
+      <c r="K182" s="49">
+        <v>44971</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13">
         <v>1.25</v>
       </c>
       <c r="D183" s="39"/>
-      <c r="E183" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E183" s="9"/>
       <c r="F183" s="20"/>
       <c r="G183" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H183" s="39"/>
-      <c r="I183" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I183" s="9"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="59" t="s">
-        <v>88</v>
+      <c r="A184" s="40">
+        <v>43191</v>
       </c>
       <c r="B184" s="20"/>
-      <c r="C184" s="13"/>
+      <c r="C184" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D184" s="39"/>
-      <c r="E184" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E184" s="9"/>
       <c r="F184" s="20"/>
-      <c r="G184" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G184" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H184" s="39"/>
-      <c r="I184" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I184" s="9"/>
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
-        <v>43101</v>
-      </c>
-      <c r="B185" s="20"/>
+        <v>43221</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C185" s="13">
         <v>1.25</v>
       </c>
@@ -7605,48 +7614,44 @@
       <c r="H185" s="39"/>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="20"/>
+      <c r="K185" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186" s="40">
-        <v>43132</v>
-      </c>
+      <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C186" s="13">
-        <v>1.25</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C186" s="13"/>
       <c r="D186" s="39"/>
       <c r="E186" s="9"/>
       <c r="F186" s="20"/>
-      <c r="G186" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H186" s="39">
-        <v>8</v>
-      </c>
+      <c r="G186" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H186" s="39"/>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="61">
-        <v>44971</v>
+      <c r="K186" s="20" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="40">
-        <v>43160</v>
-      </c>
-      <c r="B187" s="20"/>
-      <c r="C187" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D187" s="39"/>
+      <c r="A187" s="40"/>
+      <c r="B187" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C187" s="13"/>
+      <c r="D187" s="39">
+        <v>1.552</v>
+      </c>
       <c r="E187" s="9"/>
       <c r="F187" s="20"/>
-      <c r="G187" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G187" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H187" s="39"/>
       <c r="I187" s="9"/>
@@ -7655,13 +7660,17 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <v>43191</v>
-      </c>
-      <c r="B188" s="20"/>
+        <v>43252</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="C188" s="13">
         <v>1.25</v>
       </c>
-      <c r="D188" s="39"/>
+      <c r="D188" s="39">
+        <v>1.0960000000000001</v>
+      </c>
       <c r="E188" s="9"/>
       <c r="F188" s="20"/>
       <c r="G188" s="13">
@@ -7675,11 +7684,9 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <v>43221</v>
-      </c>
-      <c r="B189" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>43282</v>
+      </c>
+      <c r="B189" s="20"/>
       <c r="C189" s="13">
         <v>1.25</v>
       </c>
@@ -7693,44 +7700,46 @@
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="K189" s="20"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="40"/>
+      <c r="A190" s="40">
+        <v>43313</v>
+      </c>
       <c r="B190" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C190" s="13"/>
-      <c r="D190" s="39"/>
+        <v>196</v>
+      </c>
+      <c r="C190" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D190" s="39">
+        <v>0.123</v>
+      </c>
       <c r="E190" s="9"/>
       <c r="F190" s="20"/>
-      <c r="G190" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G190" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H190" s="39"/>
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
-      <c r="K190" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="K190" s="20"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="40"/>
-      <c r="B191" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C191" s="13"/>
-      <c r="D191" s="39">
-        <v>1.552</v>
-      </c>
+      <c r="A191" s="40">
+        <v>43344</v>
+      </c>
+      <c r="B191" s="20"/>
+      <c r="C191" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D191" s="39"/>
       <c r="E191" s="9"/>
       <c r="F191" s="20"/>
-      <c r="G191" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G191" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H191" s="39"/>
       <c r="I191" s="9"/>
@@ -7739,7 +7748,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <v>43252</v>
+        <v>43374</v>
       </c>
       <c r="B192" s="20" t="s">
         <v>197</v>
@@ -7748,7 +7757,7 @@
         <v>1.25</v>
       </c>
       <c r="D192" s="39">
-        <v>1.0960000000000001</v>
+        <v>3</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="20"/>
@@ -7763,7 +7772,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <v>43282</v>
+        <v>43405</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -7783,16 +7792,16 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <v>43313</v>
+        <v>43435</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="C194" s="13">
         <v>1.25</v>
       </c>
       <c r="D194" s="39">
-        <v>0.123</v>
+        <v>5</v>
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="20"/>
@@ -7806,38 +7815,36 @@
       <c r="K194" s="20"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195" s="40">
-        <v>43344</v>
+      <c r="A195" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="B195" s="20"/>
-      <c r="C195" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C195" s="13"/>
       <c r="D195" s="39"/>
-      <c r="E195" s="9"/>
+      <c r="E195" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F195" s="20"/>
-      <c r="G195" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G195" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H195" s="39"/>
-      <c r="I195" s="9"/>
+      <c r="I195" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <v>43374</v>
-      </c>
-      <c r="B196" s="20" t="s">
-        <v>199</v>
-      </c>
+        <v>43466</v>
+      </c>
+      <c r="B196" s="20"/>
       <c r="C196" s="13">
         <v>1.25</v>
       </c>
-      <c r="D196" s="39">
-        <v>3</v>
-      </c>
+      <c r="D196" s="39"/>
       <c r="E196" s="9"/>
       <c r="F196" s="20"/>
       <c r="G196" s="13">
@@ -7851,7 +7858,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7871,17 +7878,13 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
-        <v>43435</v>
-      </c>
-      <c r="B198" s="20" t="s">
-        <v>89</v>
-      </c>
+        <v>43525</v>
+      </c>
+      <c r="B198" s="20"/>
       <c r="C198" s="13">
         <v>1.25</v>
       </c>
-      <c r="D198" s="39">
-        <v>5</v>
-      </c>
+      <c r="D198" s="39"/>
       <c r="E198" s="9"/>
       <c r="F198" s="20"/>
       <c r="G198" s="13">
@@ -7894,36 +7897,38 @@
       <c r="K198" s="20"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199" s="59" t="s">
-        <v>193</v>
+      <c r="A199" s="40">
+        <v>43556</v>
       </c>
       <c r="B199" s="20"/>
-      <c r="C199" s="13"/>
+      <c r="C199" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D199" s="39"/>
-      <c r="E199" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E199" s="9"/>
       <c r="F199" s="20"/>
-      <c r="G199" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G199" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H199" s="39"/>
-      <c r="I199" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I199" s="9"/>
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <v>43466</v>
-      </c>
-      <c r="B200" s="20"/>
+        <v>43586</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="C200" s="13">
         <v>1.25</v>
       </c>
-      <c r="D200" s="39"/>
+      <c r="D200" s="39">
+        <v>4</v>
+      </c>
       <c r="E200" s="9"/>
       <c r="F200" s="20"/>
       <c r="G200" s="13">
@@ -7933,31 +7938,33 @@
       <c r="H200" s="39"/>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="20"/>
+      <c r="K200" s="20" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201" s="40">
-        <v>43497</v>
-      </c>
-      <c r="B201" s="20"/>
-      <c r="C201" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A201" s="40"/>
+      <c r="B201" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C201" s="13"/>
       <c r="D201" s="39"/>
       <c r="E201" s="9"/>
       <c r="F201" s="20"/>
-      <c r="G201" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G201" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H201" s="39"/>
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
-      <c r="K201" s="20"/>
+      <c r="K201" s="48">
+        <v>45068</v>
+      </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13">
@@ -7977,7 +7984,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13">
@@ -7997,17 +8004,13 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <v>43586</v>
-      </c>
-      <c r="B204" s="20" t="s">
-        <v>200</v>
-      </c>
+        <v>43678</v>
+      </c>
+      <c r="B204" s="20"/>
       <c r="C204" s="13">
         <v>1.25</v>
       </c>
-      <c r="D204" s="39">
-        <v>4</v>
-      </c>
+      <c r="D204" s="39"/>
       <c r="E204" s="9"/>
       <c r="F204" s="20"/>
       <c r="G204" s="13">
@@ -8017,40 +8020,42 @@
       <c r="H204" s="39"/>
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
-      <c r="K204" s="20" t="s">
-        <v>201</v>
-      </c>
+      <c r="K204" s="20"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A205" s="40"/>
-      <c r="B205" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C205" s="13"/>
+      <c r="A205" s="40">
+        <v>43709</v>
+      </c>
+      <c r="B205" s="20"/>
+      <c r="C205" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D205" s="39"/>
       <c r="E205" s="9"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G205" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H205" s="39"/>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
-      <c r="K205" s="60">
-        <v>45068</v>
-      </c>
+      <c r="K205" s="20"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A206" s="40"/>
+      <c r="A206" s="40">
+        <v>43739</v>
+      </c>
       <c r="B206" s="20"/>
-      <c r="C206" s="13"/>
+      <c r="C206" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D206" s="39"/>
       <c r="E206" s="9"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G206" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H206" s="39"/>
       <c r="I206" s="9"/>
@@ -8058,15 +8063,19 @@
       <c r="K206" s="20"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A207" s="40"/>
+      <c r="A207" s="40">
+        <v>43770</v>
+      </c>
       <c r="B207" s="20"/>
-      <c r="C207" s="13"/>
+      <c r="C207" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D207" s="39"/>
       <c r="E207" s="9"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G207" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H207" s="39"/>
       <c r="I207" s="9"/>
@@ -8074,15 +8083,23 @@
       <c r="K207" s="20"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A208" s="40"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="39"/>
+      <c r="A208" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B208" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C208" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D208" s="39">
+        <v>1</v>
+      </c>
       <c r="E208" s="9"/>
       <c r="F208" s="20"/>
-      <c r="G208" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G208" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H208" s="39"/>
       <c r="I208" s="9"/>
@@ -8090,7 +8107,9 @@
       <c r="K208" s="20"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A209" s="40"/>
+      <c r="A209" s="47" t="s">
+        <v>200</v>
+      </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
       <c r="D209" s="39"/>
@@ -8106,15 +8125,19 @@
       <c r="K209" s="20"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A210" s="40"/>
+      <c r="A210" s="40">
+        <v>43831</v>
+      </c>
       <c r="B210" s="20"/>
-      <c r="C210" s="13"/>
+      <c r="C210" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D210" s="39"/>
       <c r="E210" s="9"/>
       <c r="F210" s="20"/>
-      <c r="G210" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G210" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H210" s="39"/>
       <c r="I210" s="9"/>
@@ -8122,15 +8145,19 @@
       <c r="K210" s="20"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A211" s="40"/>
+      <c r="A211" s="40">
+        <v>43862</v>
+      </c>
       <c r="B211" s="20"/>
-      <c r="C211" s="13"/>
+      <c r="C211" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D211" s="39"/>
       <c r="E211" s="9"/>
       <c r="F211" s="20"/>
-      <c r="G211" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G211" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H211" s="39"/>
       <c r="I211" s="9"/>
@@ -8138,15 +8165,19 @@
       <c r="K211" s="20"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A212" s="40"/>
+      <c r="A212" s="40">
+        <v>43891</v>
+      </c>
       <c r="B212" s="20"/>
-      <c r="C212" s="13"/>
+      <c r="C212" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D212" s="39"/>
       <c r="E212" s="9"/>
       <c r="F212" s="20"/>
-      <c r="G212" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G212" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H212" s="39"/>
       <c r="I212" s="9"/>
@@ -8154,15 +8185,19 @@
       <c r="K212" s="20"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A213" s="40"/>
+      <c r="A213" s="40">
+        <v>43922</v>
+      </c>
       <c r="B213" s="20"/>
-      <c r="C213" s="13"/>
+      <c r="C213" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D213" s="39"/>
       <c r="E213" s="9"/>
       <c r="F213" s="20"/>
-      <c r="G213" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G213" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H213" s="39"/>
       <c r="I213" s="9"/>
@@ -8170,15 +8205,19 @@
       <c r="K213" s="20"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A214" s="40"/>
+      <c r="A214" s="40">
+        <v>43952</v>
+      </c>
       <c r="B214" s="20"/>
-      <c r="C214" s="13"/>
+      <c r="C214" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D214" s="39"/>
       <c r="E214" s="9"/>
       <c r="F214" s="20"/>
-      <c r="G214" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G214" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H214" s="39"/>
       <c r="I214" s="9"/>
@@ -8186,15 +8225,19 @@
       <c r="K214" s="20"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A215" s="40"/>
+      <c r="A215" s="40">
+        <v>43983</v>
+      </c>
       <c r="B215" s="20"/>
-      <c r="C215" s="13"/>
+      <c r="C215" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D215" s="39"/>
       <c r="E215" s="9"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G215" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H215" s="39"/>
       <c r="I215" s="9"/>
@@ -8202,15 +8245,19 @@
       <c r="K215" s="20"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A216" s="40"/>
+      <c r="A216" s="40">
+        <v>44013</v>
+      </c>
       <c r="B216" s="20"/>
-      <c r="C216" s="13"/>
+      <c r="C216" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D216" s="39"/>
       <c r="E216" s="9"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G216" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H216" s="39"/>
       <c r="I216" s="9"/>
@@ -8218,15 +8265,19 @@
       <c r="K216" s="20"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A217" s="40"/>
+      <c r="A217" s="40">
+        <v>44044</v>
+      </c>
       <c r="B217" s="20"/>
-      <c r="C217" s="13"/>
+      <c r="C217" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D217" s="39"/>
       <c r="E217" s="9"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G217" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H217" s="39"/>
       <c r="I217" s="9"/>
@@ -8234,15 +8285,19 @@
       <c r="K217" s="20"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="40"/>
+      <c r="A218" s="40">
+        <v>44075</v>
+      </c>
       <c r="B218" s="20"/>
-      <c r="C218" s="13"/>
+      <c r="C218" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D218" s="39"/>
       <c r="E218" s="9"/>
       <c r="F218" s="20"/>
-      <c r="G218" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G218" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H218" s="39"/>
       <c r="I218" s="9"/>
@@ -8250,15 +8305,19 @@
       <c r="K218" s="20"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219" s="40"/>
+      <c r="A219" s="40">
+        <v>44105</v>
+      </c>
       <c r="B219" s="20"/>
-      <c r="C219" s="13"/>
+      <c r="C219" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D219" s="39"/>
       <c r="E219" s="9"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G219" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H219" s="39"/>
       <c r="I219" s="9"/>
@@ -8266,15 +8325,19 @@
       <c r="K219" s="20"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A220" s="40"/>
+      <c r="A220" s="40">
+        <v>44136</v>
+      </c>
       <c r="B220" s="20"/>
-      <c r="C220" s="13"/>
+      <c r="C220" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D220" s="39"/>
       <c r="E220" s="9"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G220" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H220" s="39"/>
       <c r="I220" s="9"/>
@@ -8282,15 +8345,23 @@
       <c r="K220" s="20"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A221" s="40"/>
-      <c r="B221" s="20"/>
-      <c r="C221" s="13"/>
-      <c r="D221" s="39"/>
+      <c r="A221" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C221" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D221" s="39">
+        <v>5</v>
+      </c>
       <c r="E221" s="9"/>
       <c r="F221" s="20"/>
-      <c r="G221" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G221" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H221" s="39"/>
       <c r="I221" s="9"/>
@@ -8298,7 +8369,9 @@
       <c r="K221" s="20"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A222" s="40"/>
+      <c r="A222" s="47" t="s">
+        <v>201</v>
+      </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
       <c r="D222" s="39"/>
@@ -8314,15 +8387,19 @@
       <c r="K222" s="20"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A223" s="40"/>
+      <c r="A223" s="40">
+        <v>44197</v>
+      </c>
       <c r="B223" s="20"/>
-      <c r="C223" s="13"/>
+      <c r="C223" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D223" s="39"/>
       <c r="E223" s="9"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G223" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H223" s="39"/>
       <c r="I223" s="9"/>
@@ -8330,15 +8407,19 @@
       <c r="K223" s="20"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A224" s="40"/>
+      <c r="A224" s="40">
+        <v>44228</v>
+      </c>
       <c r="B224" s="20"/>
-      <c r="C224" s="13"/>
+      <c r="C224" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D224" s="39"/>
       <c r="E224" s="9"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G224" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H224" s="39"/>
       <c r="I224" s="9"/>
@@ -8346,15 +8427,19 @@
       <c r="K224" s="20"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A225" s="40"/>
+      <c r="A225" s="40">
+        <v>44256</v>
+      </c>
       <c r="B225" s="20"/>
-      <c r="C225" s="13"/>
+      <c r="C225" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D225" s="39"/>
       <c r="E225" s="9"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G225" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H225" s="39"/>
       <c r="I225" s="9"/>
@@ -8362,15 +8447,19 @@
       <c r="K225" s="20"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A226" s="40"/>
+      <c r="A226" s="40">
+        <v>44287</v>
+      </c>
       <c r="B226" s="20"/>
-      <c r="C226" s="13"/>
+      <c r="C226" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D226" s="39"/>
       <c r="E226" s="9"/>
       <c r="F226" s="20"/>
-      <c r="G226" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G226" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H226" s="39"/>
       <c r="I226" s="9"/>
@@ -8378,15 +8467,19 @@
       <c r="K226" s="20"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A227" s="40"/>
+      <c r="A227" s="40">
+        <v>44317</v>
+      </c>
       <c r="B227" s="20"/>
-      <c r="C227" s="13"/>
+      <c r="C227" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D227" s="39"/>
       <c r="E227" s="9"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G227" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H227" s="39"/>
       <c r="I227" s="9"/>
@@ -8394,15 +8487,19 @@
       <c r="K227" s="20"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A228" s="40"/>
+      <c r="A228" s="40">
+        <v>44348</v>
+      </c>
       <c r="B228" s="20"/>
-      <c r="C228" s="13"/>
+      <c r="C228" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D228" s="39"/>
       <c r="E228" s="9"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G228" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H228" s="39"/>
       <c r="I228" s="9"/>
@@ -8410,15 +8507,19 @@
       <c r="K228" s="20"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A229" s="40"/>
+      <c r="A229" s="40">
+        <v>44378</v>
+      </c>
       <c r="B229" s="20"/>
-      <c r="C229" s="13"/>
+      <c r="C229" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D229" s="39"/>
       <c r="E229" s="9"/>
       <c r="F229" s="20"/>
-      <c r="G229" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G229" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H229" s="39"/>
       <c r="I229" s="9"/>
@@ -8426,15 +8527,19 @@
       <c r="K229" s="20"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A230" s="40"/>
+      <c r="A230" s="40">
+        <v>44409</v>
+      </c>
       <c r="B230" s="20"/>
-      <c r="C230" s="13"/>
+      <c r="C230" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D230" s="39"/>
       <c r="E230" s="9"/>
       <c r="F230" s="20"/>
-      <c r="G230" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G230" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H230" s="39"/>
       <c r="I230" s="9"/>
@@ -8442,15 +8547,19 @@
       <c r="K230" s="20"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A231" s="40"/>
+      <c r="A231" s="40">
+        <v>44440</v>
+      </c>
       <c r="B231" s="20"/>
-      <c r="C231" s="13"/>
+      <c r="C231" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D231" s="39"/>
       <c r="E231" s="9"/>
       <c r="F231" s="20"/>
-      <c r="G231" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G231" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H231" s="39"/>
       <c r="I231" s="9"/>
@@ -8458,15 +8567,19 @@
       <c r="K231" s="20"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A232" s="40"/>
+      <c r="A232" s="40">
+        <v>44470</v>
+      </c>
       <c r="B232" s="20"/>
-      <c r="C232" s="13"/>
+      <c r="C232" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D232" s="39"/>
       <c r="E232" s="9"/>
       <c r="F232" s="20"/>
-      <c r="G232" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G232" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H232" s="39"/>
       <c r="I232" s="9"/>
@@ -8474,15 +8587,19 @@
       <c r="K232" s="20"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A233" s="40"/>
+      <c r="A233" s="40">
+        <v>44501</v>
+      </c>
       <c r="B233" s="20"/>
-      <c r="C233" s="13"/>
+      <c r="C233" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D233" s="39"/>
       <c r="E233" s="9"/>
       <c r="F233" s="20"/>
-      <c r="G233" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G233" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H233" s="39"/>
       <c r="I233" s="9"/>
@@ -8490,15 +8607,23 @@
       <c r="K233" s="20"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A234" s="40"/>
-      <c r="B234" s="20"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="39"/>
+      <c r="A234" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B234" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C234" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D234" s="39">
+        <v>5</v>
+      </c>
       <c r="E234" s="9"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G234" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H234" s="39"/>
       <c r="I234" s="9"/>
@@ -8506,7 +8631,9 @@
       <c r="K234" s="20"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A235" s="40"/>
+      <c r="A235" s="47" t="s">
+        <v>202</v>
+      </c>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
       <c r="D235" s="39"/>
@@ -8522,15 +8649,19 @@
       <c r="K235" s="20"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A236" s="40"/>
+      <c r="A236" s="40">
+        <v>44562</v>
+      </c>
       <c r="B236" s="20"/>
-      <c r="C236" s="13"/>
+      <c r="C236" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D236" s="39"/>
       <c r="E236" s="9"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G236" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H236" s="39"/>
       <c r="I236" s="9"/>
@@ -8538,15 +8669,19 @@
       <c r="K236" s="20"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A237" s="40"/>
+      <c r="A237" s="40">
+        <v>44593</v>
+      </c>
       <c r="B237" s="20"/>
-      <c r="C237" s="13"/>
+      <c r="C237" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D237" s="39"/>
       <c r="E237" s="9"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G237" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H237" s="39"/>
       <c r="I237" s="9"/>
@@ -8554,15 +8689,19 @@
       <c r="K237" s="20"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A238" s="40"/>
+      <c r="A238" s="40">
+        <v>44621</v>
+      </c>
       <c r="B238" s="20"/>
-      <c r="C238" s="13"/>
+      <c r="C238" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D238" s="39"/>
       <c r="E238" s="9"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G238" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H238" s="39"/>
       <c r="I238" s="9"/>
@@ -8570,15 +8709,19 @@
       <c r="K238" s="20"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A239" s="40"/>
+      <c r="A239" s="40">
+        <v>44652</v>
+      </c>
       <c r="B239" s="20"/>
-      <c r="C239" s="13"/>
+      <c r="C239" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D239" s="39"/>
       <c r="E239" s="9"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G239" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H239" s="39"/>
       <c r="I239" s="9"/>
@@ -8586,15 +8729,19 @@
       <c r="K239" s="20"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A240" s="40"/>
+      <c r="A240" s="40">
+        <v>44682</v>
+      </c>
       <c r="B240" s="20"/>
-      <c r="C240" s="13"/>
+      <c r="C240" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D240" s="39"/>
       <c r="E240" s="9"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G240" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H240" s="39"/>
       <c r="I240" s="9"/>
@@ -8602,15 +8749,19 @@
       <c r="K240" s="20"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" s="40"/>
+      <c r="A241" s="40">
+        <v>44713</v>
+      </c>
       <c r="B241" s="20"/>
-      <c r="C241" s="13"/>
+      <c r="C241" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D241" s="39"/>
       <c r="E241" s="9"/>
       <c r="F241" s="20"/>
-      <c r="G241" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G241" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H241" s="39"/>
       <c r="I241" s="9"/>
@@ -8618,15 +8769,19 @@
       <c r="K241" s="20"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242" s="40"/>
+      <c r="A242" s="40">
+        <v>44743</v>
+      </c>
       <c r="B242" s="20"/>
-      <c r="C242" s="13"/>
+      <c r="C242" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D242" s="39"/>
       <c r="E242" s="9"/>
       <c r="F242" s="20"/>
-      <c r="G242" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G242" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H242" s="39"/>
       <c r="I242" s="9"/>
@@ -8634,15 +8789,19 @@
       <c r="K242" s="20"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A243" s="40"/>
+      <c r="A243" s="40">
+        <v>44774</v>
+      </c>
       <c r="B243" s="20"/>
-      <c r="C243" s="13"/>
+      <c r="C243" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D243" s="39"/>
       <c r="E243" s="9"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G243" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H243" s="39"/>
       <c r="I243" s="9"/>
@@ -8650,15 +8809,19 @@
       <c r="K243" s="20"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A244" s="40"/>
+      <c r="A244" s="40">
+        <v>44805</v>
+      </c>
       <c r="B244" s="20"/>
-      <c r="C244" s="13"/>
+      <c r="C244" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D244" s="39"/>
       <c r="E244" s="9"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G244" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H244" s="39"/>
       <c r="I244" s="9"/>
@@ -8666,15 +8829,19 @@
       <c r="K244" s="20"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A245" s="40"/>
+      <c r="A245" s="40">
+        <v>44835</v>
+      </c>
       <c r="B245" s="20"/>
-      <c r="C245" s="13"/>
+      <c r="C245" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D245" s="39"/>
       <c r="E245" s="9"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G245" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H245" s="39"/>
       <c r="I245" s="9"/>
@@ -8682,15 +8849,19 @@
       <c r="K245" s="20"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A246" s="40"/>
+      <c r="A246" s="40">
+        <v>44866</v>
+      </c>
       <c r="B246" s="20"/>
-      <c r="C246" s="13"/>
+      <c r="C246" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D246" s="39"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G246" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H246" s="39"/>
       <c r="I246" s="9"/>
@@ -8698,15 +8869,23 @@
       <c r="K246" s="20"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A247" s="40"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="13"/>
-      <c r="D247" s="39"/>
+      <c r="A247" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B247" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C247" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D247" s="39">
+        <v>5</v>
+      </c>
       <c r="E247" s="9"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G247" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H247" s="39"/>
       <c r="I247" s="9"/>
@@ -8714,7 +8893,9 @@
       <c r="K247" s="20"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A248" s="40"/>
+      <c r="A248" s="47" t="s">
+        <v>203</v>
+      </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
       <c r="D248" s="39"/>
@@ -8730,15 +8911,19 @@
       <c r="K248" s="20"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A249" s="40"/>
+      <c r="A249" s="40">
+        <v>44927</v>
+      </c>
       <c r="B249" s="20"/>
-      <c r="C249" s="13"/>
+      <c r="C249" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D249" s="39"/>
       <c r="E249" s="9"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G249" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H249" s="39"/>
       <c r="I249" s="9"/>
@@ -8746,15 +8931,19 @@
       <c r="K249" s="20"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A250" s="40"/>
+      <c r="A250" s="40">
+        <v>44958</v>
+      </c>
       <c r="B250" s="20"/>
-      <c r="C250" s="13"/>
+      <c r="C250" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D250" s="39"/>
       <c r="E250" s="9"/>
       <c r="F250" s="20"/>
-      <c r="G250" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G250" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H250" s="39"/>
       <c r="I250" s="9"/>
@@ -8762,15 +8951,19 @@
       <c r="K250" s="20"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A251" s="40"/>
+      <c r="A251" s="40">
+        <v>44986</v>
+      </c>
       <c r="B251" s="20"/>
-      <c r="C251" s="13"/>
+      <c r="C251" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D251" s="39"/>
       <c r="E251" s="9"/>
       <c r="F251" s="20"/>
-      <c r="G251" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G251" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H251" s="39"/>
       <c r="I251" s="9"/>
@@ -8778,15 +8971,19 @@
       <c r="K251" s="20"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A252" s="40"/>
+      <c r="A252" s="40">
+        <v>45017</v>
+      </c>
       <c r="B252" s="20"/>
-      <c r="C252" s="13"/>
+      <c r="C252" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D252" s="39"/>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G252" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H252" s="39"/>
       <c r="I252" s="9"/>
@@ -8794,15 +8991,19 @@
       <c r="K252" s="20"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A253" s="40"/>
+      <c r="A253" s="40">
+        <v>45047</v>
+      </c>
       <c r="B253" s="20"/>
-      <c r="C253" s="13"/>
+      <c r="C253" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D253" s="39"/>
       <c r="E253" s="9"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G253" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
@@ -8810,7 +9011,9 @@
       <c r="K253" s="20"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A254" s="40"/>
+      <c r="A254" s="40">
+        <v>45078</v>
+      </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
       <c r="D254" s="39"/>
@@ -8826,7 +9029,9 @@
       <c r="K254" s="20"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A255" s="40"/>
+      <c r="A255" s="40">
+        <v>45108</v>
+      </c>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
       <c r="D255" s="39"/>
@@ -8842,7 +9047,9 @@
       <c r="K255" s="20"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A256" s="40"/>
+      <c r="A256" s="40">
+        <v>45139</v>
+      </c>
       <c r="B256" s="15"/>
       <c r="C256" s="41"/>
       <c r="D256" s="42"/>
@@ -8856,6 +9063,24 @@
       <c r="I256" s="9"/>
       <c r="J256" s="12"/>
       <c r="K256" s="15"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B257" s="20"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="39"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H257" s="39"/>
+      <c r="I257" s="9"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8872,10 +9097,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8898,7 +9123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8921,17 +9146,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -9016,12 +9241,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
